--- a/data/AMBRA1/IP/AMBRA1-SaintScore-2uniquespeptides.xlsx
+++ b/data/AMBRA1/IP/AMBRA1-SaintScore-2uniquespeptides.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25611"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Lab FMBoisvert\Jenny\1_Résultats\1-DECAF\1-IP_Files\IP\2020-IP-DCAF\DCAF3-AMBRA1-done\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_628C520F6F2594FCFE5269FE28891B22DA35371F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="12360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8851" sheetId="1" r:id="rId1"/>
@@ -2655,8 +2656,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3137,48 +3138,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Commentaire" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3455,14 +3456,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q472"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3515,7 +3516,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -3565,7 +3566,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -3615,7 +3616,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -3665,7 +3666,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -3715,7 +3716,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -3765,7 +3766,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -3815,7 +3816,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -3865,7 +3866,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -3915,7 +3916,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -3965,7 +3966,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -4015,7 +4016,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -4065,7 +4066,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -4115,7 +4116,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -4165,7 +4166,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -4215,7 +4216,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -4265,7 +4266,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -4315,7 +4316,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -4365,7 +4366,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -4415,7 +4416,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -4465,7 +4466,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -4515,7 +4516,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -4565,7 +4566,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -4615,7 +4616,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -4665,7 +4666,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -4715,7 +4716,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -4765,7 +4766,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -4815,7 +4816,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -4865,7 +4866,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -4915,7 +4916,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -4965,7 +4966,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -5015,7 +5016,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -5065,7 +5066,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -5115,7 +5116,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -5165,7 +5166,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -5215,7 +5216,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -5265,7 +5266,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -5315,7 +5316,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -5365,7 +5366,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -5415,7 +5416,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -5465,7 +5466,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -5515,7 +5516,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -5565,7 +5566,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -5615,7 +5616,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -5665,7 +5666,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -5715,7 +5716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -5765,7 +5766,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -5815,7 +5816,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -5865,7 +5866,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -5915,7 +5916,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -5965,7 +5966,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -6015,7 +6016,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -6065,7 +6066,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -6115,7 +6116,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -6165,7 +6166,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -6215,7 +6216,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -6265,7 +6266,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -6315,7 +6316,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16">
       <c r="A58" t="s">
         <v>17</v>
       </c>
@@ -6365,7 +6366,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16">
       <c r="A59" t="s">
         <v>17</v>
       </c>
@@ -6415,7 +6416,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16">
       <c r="A60" t="s">
         <v>17</v>
       </c>
@@ -6465,7 +6466,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -6515,7 +6516,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -6565,7 +6566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -6615,7 +6616,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16">
       <c r="A64" t="s">
         <v>17</v>
       </c>
@@ -6665,7 +6666,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16">
       <c r="A65" t="s">
         <v>17</v>
       </c>
@@ -6715,7 +6716,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16">
       <c r="A66" t="s">
         <v>17</v>
       </c>
@@ -6765,7 +6766,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16">
       <c r="A67" t="s">
         <v>17</v>
       </c>
@@ -6815,7 +6816,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16">
       <c r="A68" t="s">
         <v>17</v>
       </c>
@@ -6865,7 +6866,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16">
       <c r="A69" t="s">
         <v>17</v>
       </c>
@@ -6915,7 +6916,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16">
       <c r="A70" t="s">
         <v>17</v>
       </c>
@@ -6965,7 +6966,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16">
       <c r="A71" t="s">
         <v>17</v>
       </c>
@@ -7015,7 +7016,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16">
       <c r="A72" t="s">
         <v>17</v>
       </c>
@@ -7065,7 +7066,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16">
       <c r="A73" t="s">
         <v>17</v>
       </c>
@@ -7115,7 +7116,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16">
       <c r="A74" t="s">
         <v>17</v>
       </c>
@@ -7165,7 +7166,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16">
       <c r="A75" t="s">
         <v>17</v>
       </c>
@@ -7215,7 +7216,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16">
       <c r="A76" t="s">
         <v>17</v>
       </c>
@@ -7265,7 +7266,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16">
       <c r="A77" t="s">
         <v>17</v>
       </c>
@@ -7315,7 +7316,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16">
       <c r="A78" t="s">
         <v>17</v>
       </c>
@@ -7365,7 +7366,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16">
       <c r="A79" t="s">
         <v>17</v>
       </c>
@@ -7415,7 +7416,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16">
       <c r="A80" t="s">
         <v>17</v>
       </c>
@@ -7465,7 +7466,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16">
       <c r="A81" t="s">
         <v>17</v>
       </c>
@@ -7515,7 +7516,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16">
       <c r="A82" t="s">
         <v>17</v>
       </c>
@@ -7565,7 +7566,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16">
       <c r="A83" t="s">
         <v>17</v>
       </c>
@@ -7615,7 +7616,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16">
       <c r="A84" t="s">
         <v>17</v>
       </c>
@@ -7665,7 +7666,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16">
       <c r="A85" t="s">
         <v>17</v>
       </c>
@@ -7715,7 +7716,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16">
       <c r="A86" t="s">
         <v>17</v>
       </c>
@@ -7765,7 +7766,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16">
       <c r="A87" t="s">
         <v>17</v>
       </c>
@@ -7815,7 +7816,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16">
       <c r="A88" t="s">
         <v>17</v>
       </c>
@@ -7865,7 +7866,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16">
       <c r="A89" t="s">
         <v>17</v>
       </c>
@@ -7915,7 +7916,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16">
       <c r="A90" t="s">
         <v>17</v>
       </c>
@@ -7965,7 +7966,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16">
       <c r="A91" t="s">
         <v>17</v>
       </c>
@@ -8015,7 +8016,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16">
       <c r="A92" t="s">
         <v>17</v>
       </c>
@@ -8065,7 +8066,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16">
       <c r="A93" t="s">
         <v>17</v>
       </c>
@@ -8115,7 +8116,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16">
       <c r="A94" t="s">
         <v>17</v>
       </c>
@@ -8165,7 +8166,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16">
       <c r="A95" t="s">
         <v>17</v>
       </c>
@@ -8215,7 +8216,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16">
       <c r="A96" t="s">
         <v>17</v>
       </c>
@@ -8265,7 +8266,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16">
       <c r="A97" t="s">
         <v>17</v>
       </c>
@@ -8315,7 +8316,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16">
       <c r="A98" t="s">
         <v>17</v>
       </c>
@@ -8365,7 +8366,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16">
       <c r="A99" t="s">
         <v>17</v>
       </c>
@@ -8415,7 +8416,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16">
       <c r="A100" t="s">
         <v>17</v>
       </c>
@@ -8465,7 +8466,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16">
       <c r="A101" t="s">
         <v>17</v>
       </c>
@@ -8515,7 +8516,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16">
       <c r="A102" t="s">
         <v>17</v>
       </c>
@@ -8565,7 +8566,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16">
       <c r="A103" t="s">
         <v>17</v>
       </c>
@@ -8615,7 +8616,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16">
       <c r="A104" t="s">
         <v>17</v>
       </c>
@@ -8665,7 +8666,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16">
       <c r="A105" t="s">
         <v>17</v>
       </c>
@@ -8715,7 +8716,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16">
       <c r="A106" t="s">
         <v>17</v>
       </c>
@@ -8765,7 +8766,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16">
       <c r="A107" t="s">
         <v>17</v>
       </c>
@@ -8815,7 +8816,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16">
       <c r="A108" t="s">
         <v>17</v>
       </c>
@@ -8865,7 +8866,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16">
       <c r="A109" t="s">
         <v>17</v>
       </c>
@@ -8915,7 +8916,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16">
       <c r="A110" t="s">
         <v>17</v>
       </c>
@@ -8965,7 +8966,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16">
       <c r="A111" t="s">
         <v>17</v>
       </c>
@@ -9015,7 +9016,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16">
       <c r="A112" t="s">
         <v>17</v>
       </c>
@@ -9065,7 +9066,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16">
       <c r="A113" t="s">
         <v>17</v>
       </c>
@@ -9115,7 +9116,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16">
       <c r="A114" t="s">
         <v>17</v>
       </c>
@@ -9165,7 +9166,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16">
       <c r="A115" t="s">
         <v>17</v>
       </c>
@@ -9215,7 +9216,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16">
       <c r="A116" t="s">
         <v>17</v>
       </c>
@@ -9265,7 +9266,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16">
       <c r="A117" t="s">
         <v>17</v>
       </c>
@@ -9315,7 +9316,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16">
       <c r="A118" t="s">
         <v>17</v>
       </c>
@@ -9365,7 +9366,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16">
       <c r="A119" t="s">
         <v>17</v>
       </c>
@@ -9415,7 +9416,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16">
       <c r="A120" t="s">
         <v>17</v>
       </c>
@@ -9465,7 +9466,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16">
       <c r="A121" t="s">
         <v>17</v>
       </c>
@@ -9515,7 +9516,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16">
       <c r="A122" t="s">
         <v>17</v>
       </c>
@@ -9565,7 +9566,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16">
       <c r="A123" t="s">
         <v>17</v>
       </c>
@@ -9615,7 +9616,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16">
       <c r="A124" t="s">
         <v>17</v>
       </c>
@@ -9665,7 +9666,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16">
       <c r="A125" t="s">
         <v>17</v>
       </c>
@@ -9715,7 +9716,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16">
       <c r="A126" t="s">
         <v>17</v>
       </c>
@@ -9765,7 +9766,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16">
       <c r="A127" t="s">
         <v>17</v>
       </c>
@@ -9815,7 +9816,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16">
       <c r="A128" t="s">
         <v>17</v>
       </c>
@@ -9865,7 +9866,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16">
       <c r="A129" t="s">
         <v>17</v>
       </c>
@@ -9915,7 +9916,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16">
       <c r="A130" t="s">
         <v>17</v>
       </c>
@@ -9965,7 +9966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16">
       <c r="A131" t="s">
         <v>17</v>
       </c>
@@ -10015,7 +10016,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16">
       <c r="A132" t="s">
         <v>17</v>
       </c>
@@ -10065,7 +10066,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16">
       <c r="A133" t="s">
         <v>17</v>
       </c>
@@ -10115,7 +10116,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16">
       <c r="A134" t="s">
         <v>17</v>
       </c>
@@ -10165,7 +10166,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16">
       <c r="A135" t="s">
         <v>17</v>
       </c>
@@ -10215,7 +10216,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16">
       <c r="A136" t="s">
         <v>17</v>
       </c>
@@ -10265,7 +10266,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16">
       <c r="A137" t="s">
         <v>17</v>
       </c>
@@ -10315,7 +10316,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16">
       <c r="A138" t="s">
         <v>17</v>
       </c>
@@ -10365,7 +10366,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16">
       <c r="A139" t="s">
         <v>17</v>
       </c>
@@ -10415,7 +10416,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16">
       <c r="A140" t="s">
         <v>17</v>
       </c>
@@ -10465,7 +10466,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16">
       <c r="A141" t="s">
         <v>17</v>
       </c>
@@ -10515,7 +10516,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16">
       <c r="A142" t="s">
         <v>17</v>
       </c>
@@ -10565,7 +10566,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16">
       <c r="A143" t="s">
         <v>17</v>
       </c>
@@ -10615,7 +10616,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16">
       <c r="A144" t="s">
         <v>17</v>
       </c>
@@ -10665,7 +10666,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16">
       <c r="A145" t="s">
         <v>17</v>
       </c>
@@ -10715,7 +10716,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16">
       <c r="A146" t="s">
         <v>17</v>
       </c>
@@ -10765,7 +10766,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16">
       <c r="A147" t="s">
         <v>17</v>
       </c>
@@ -10815,7 +10816,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16">
       <c r="A148" t="s">
         <v>17</v>
       </c>
@@ -10865,7 +10866,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16">
       <c r="A149" t="s">
         <v>17</v>
       </c>
@@ -10915,7 +10916,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16">
       <c r="A150" t="s">
         <v>17</v>
       </c>
@@ -10965,7 +10966,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16">
       <c r="A151" t="s">
         <v>17</v>
       </c>
@@ -11015,7 +11016,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16">
       <c r="A152" t="s">
         <v>17</v>
       </c>
@@ -11065,7 +11066,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16">
       <c r="A153" t="s">
         <v>17</v>
       </c>
@@ -11115,7 +11116,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16">
       <c r="A154" t="s">
         <v>17</v>
       </c>
@@ -11165,7 +11166,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16">
       <c r="A155" t="s">
         <v>17</v>
       </c>
@@ -11215,7 +11216,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16">
       <c r="A156" t="s">
         <v>17</v>
       </c>
@@ -11265,7 +11266,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16">
       <c r="A157" t="s">
         <v>17</v>
       </c>
@@ -11315,7 +11316,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16">
       <c r="A158" t="s">
         <v>17</v>
       </c>
@@ -11365,7 +11366,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16">
       <c r="A159" t="s">
         <v>17</v>
       </c>
@@ -11415,7 +11416,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16">
       <c r="A160" t="s">
         <v>17</v>
       </c>
@@ -11465,7 +11466,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16">
       <c r="A161" t="s">
         <v>17</v>
       </c>
@@ -11515,7 +11516,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16">
       <c r="A162" t="s">
         <v>17</v>
       </c>
@@ -11565,7 +11566,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16">
       <c r="A163" t="s">
         <v>17</v>
       </c>
@@ -11615,7 +11616,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16">
       <c r="A164" t="s">
         <v>17</v>
       </c>
@@ -11665,7 +11666,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16">
       <c r="A165" t="s">
         <v>17</v>
       </c>
@@ -11715,7 +11716,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16">
       <c r="A166" t="s">
         <v>17</v>
       </c>
@@ -11765,7 +11766,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16">
       <c r="A167" t="s">
         <v>17</v>
       </c>
@@ -11815,7 +11816,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16">
       <c r="A168" t="s">
         <v>17</v>
       </c>
@@ -11865,7 +11866,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16">
       <c r="A169" t="s">
         <v>17</v>
       </c>
@@ -11915,7 +11916,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16">
       <c r="A170" t="s">
         <v>17</v>
       </c>
@@ -11965,7 +11966,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16">
       <c r="A171" t="s">
         <v>17</v>
       </c>
@@ -12015,7 +12016,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16">
       <c r="A172" t="s">
         <v>17</v>
       </c>
@@ -12065,7 +12066,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16">
       <c r="A173" t="s">
         <v>17</v>
       </c>
@@ -12115,7 +12116,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16">
       <c r="A174" t="s">
         <v>17</v>
       </c>
@@ -12165,7 +12166,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16">
       <c r="A175" t="s">
         <v>17</v>
       </c>
@@ -12216,7 +12217,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16">
       <c r="A176" t="s">
         <v>17</v>
       </c>
@@ -12266,7 +12267,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16">
       <c r="A177" t="s">
         <v>17</v>
       </c>
@@ -12316,7 +12317,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16">
       <c r="A178" t="s">
         <v>17</v>
       </c>
@@ -12366,7 +12367,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16">
       <c r="A179" t="s">
         <v>17</v>
       </c>
@@ -12416,7 +12417,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16">
       <c r="A180" t="s">
         <v>17</v>
       </c>
@@ -12466,7 +12467,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16">
       <c r="A181" t="s">
         <v>17</v>
       </c>
@@ -12516,7 +12517,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16">
       <c r="A182" t="s">
         <v>17</v>
       </c>
@@ -12566,7 +12567,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16">
       <c r="A183" t="s">
         <v>17</v>
       </c>
@@ -12616,7 +12617,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16">
       <c r="A184" t="s">
         <v>17</v>
       </c>
@@ -12666,7 +12667,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16">
       <c r="A185" t="s">
         <v>17</v>
       </c>
@@ -12716,7 +12717,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16">
       <c r="A186" t="s">
         <v>17</v>
       </c>
@@ -12766,7 +12767,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16">
       <c r="A187" t="s">
         <v>17</v>
       </c>
@@ -12816,7 +12817,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16">
       <c r="A188" t="s">
         <v>17</v>
       </c>
@@ -12866,7 +12867,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16">
       <c r="A189" t="s">
         <v>17</v>
       </c>
@@ -12916,7 +12917,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16">
       <c r="A190" t="s">
         <v>17</v>
       </c>
@@ -12966,7 +12967,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16">
       <c r="A191" t="s">
         <v>17</v>
       </c>
@@ -13017,7 +13018,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16">
       <c r="A192" t="s">
         <v>17</v>
       </c>
@@ -13067,7 +13068,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16">
       <c r="A193" t="s">
         <v>17</v>
       </c>
@@ -13117,7 +13118,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:16">
       <c r="A194" t="s">
         <v>17</v>
       </c>
@@ -13167,7 +13168,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:16">
       <c r="A195" t="s">
         <v>17</v>
       </c>
@@ -13217,7 +13218,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:16">
       <c r="A196" t="s">
         <v>17</v>
       </c>
@@ -13267,7 +13268,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:16">
       <c r="A197" t="s">
         <v>17</v>
       </c>
@@ -13317,7 +13318,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:16">
       <c r="A198" t="s">
         <v>17</v>
       </c>
@@ -13367,7 +13368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:16">
       <c r="A199" t="s">
         <v>17</v>
       </c>
@@ -13417,7 +13418,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:16">
       <c r="A200" t="s">
         <v>17</v>
       </c>
@@ -13467,7 +13468,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:16">
       <c r="A201" t="s">
         <v>17</v>
       </c>
@@ -13517,7 +13518,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:16">
       <c r="A202" t="s">
         <v>17</v>
       </c>
@@ -13567,7 +13568,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:16">
       <c r="A203" t="s">
         <v>17</v>
       </c>
@@ -13617,7 +13618,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:16">
       <c r="A204" t="s">
         <v>17</v>
       </c>
@@ -13667,7 +13668,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:16">
       <c r="A205" t="s">
         <v>17</v>
       </c>
@@ -13717,7 +13718,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:16">
       <c r="A206" t="s">
         <v>17</v>
       </c>
@@ -13767,7 +13768,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:16">
       <c r="A207" t="s">
         <v>17</v>
       </c>
@@ -13817,7 +13818,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:16">
       <c r="A208" t="s">
         <v>17</v>
       </c>
@@ -13867,7 +13868,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:16">
       <c r="A209" t="s">
         <v>17</v>
       </c>
@@ -13917,7 +13918,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:16">
       <c r="A210" t="s">
         <v>17</v>
       </c>
@@ -13967,7 +13968,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:16">
       <c r="A211" t="s">
         <v>17</v>
       </c>
@@ -14017,7 +14018,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:16">
       <c r="A212" t="s">
         <v>17</v>
       </c>
@@ -14067,7 +14068,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:16">
       <c r="A213" t="s">
         <v>17</v>
       </c>
@@ -14117,7 +14118,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:16">
       <c r="A214" t="s">
         <v>17</v>
       </c>
@@ -14167,7 +14168,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:16">
       <c r="A215" t="s">
         <v>17</v>
       </c>
@@ -14217,7 +14218,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:16">
       <c r="A216" t="s">
         <v>17</v>
       </c>
@@ -14267,7 +14268,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:16">
       <c r="A217" t="s">
         <v>17</v>
       </c>
@@ -14317,7 +14318,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:16">
       <c r="A218" t="s">
         <v>17</v>
       </c>
@@ -14367,7 +14368,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:16">
       <c r="A219" t="s">
         <v>17</v>
       </c>
@@ -14417,7 +14418,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:16">
       <c r="A220" t="s">
         <v>17</v>
       </c>
@@ -14467,7 +14468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:16">
       <c r="A221" t="s">
         <v>17</v>
       </c>
@@ -14517,7 +14518,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:16">
       <c r="A222" t="s">
         <v>17</v>
       </c>
@@ -14567,7 +14568,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:16">
       <c r="A223" t="s">
         <v>17</v>
       </c>
@@ -14617,7 +14618,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:16">
       <c r="A224" t="s">
         <v>17</v>
       </c>
@@ -14667,7 +14668,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:16">
       <c r="A225" t="s">
         <v>17</v>
       </c>
@@ -14717,7 +14718,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:16">
       <c r="A226" t="s">
         <v>17</v>
       </c>
@@ -14767,7 +14768,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:16">
       <c r="A227" t="s">
         <v>17</v>
       </c>
@@ -14817,7 +14818,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:16">
       <c r="A228" t="s">
         <v>17</v>
       </c>
@@ -14868,7 +14869,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:16">
       <c r="A229" t="s">
         <v>17</v>
       </c>
@@ -14918,7 +14919,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:16">
       <c r="A230" t="s">
         <v>17</v>
       </c>
@@ -14968,7 +14969,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:16">
       <c r="A231" t="s">
         <v>17</v>
       </c>
@@ -15018,7 +15019,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:16">
       <c r="A232" t="s">
         <v>17</v>
       </c>
@@ -15068,7 +15069,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:16">
       <c r="A233" t="s">
         <v>17</v>
       </c>
@@ -15118,7 +15119,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:16">
       <c r="A234" t="s">
         <v>17</v>
       </c>
@@ -15168,7 +15169,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:16">
       <c r="A235" t="s">
         <v>17</v>
       </c>
@@ -15218,7 +15219,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:16">
       <c r="A236" t="s">
         <v>17</v>
       </c>
@@ -15268,7 +15269,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:16">
       <c r="A237" t="s">
         <v>17</v>
       </c>
@@ -15318,7 +15319,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:16">
       <c r="A238" t="s">
         <v>17</v>
       </c>
@@ -15368,7 +15369,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:16">
       <c r="A239" t="s">
         <v>17</v>
       </c>
@@ -15418,7 +15419,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:16">
       <c r="A240" t="s">
         <v>17</v>
       </c>
@@ -15468,7 +15469,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:16">
       <c r="A241" t="s">
         <v>17</v>
       </c>
@@ -15518,7 +15519,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:16">
       <c r="A242" t="s">
         <v>17</v>
       </c>
@@ -15568,7 +15569,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:16">
       <c r="A243" t="s">
         <v>17</v>
       </c>
@@ -15618,7 +15619,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:16">
       <c r="A244" t="s">
         <v>17</v>
       </c>
@@ -15668,7 +15669,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:16">
       <c r="A245" t="s">
         <v>17</v>
       </c>
@@ -15718,7 +15719,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:16">
       <c r="A246" t="s">
         <v>17</v>
       </c>
@@ -15768,7 +15769,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:16">
       <c r="A247" t="s">
         <v>17</v>
       </c>
@@ -15818,7 +15819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:16">
       <c r="A248" t="s">
         <v>17</v>
       </c>
@@ -15868,7 +15869,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:16">
       <c r="A249" t="s">
         <v>17</v>
       </c>
@@ -15918,7 +15919,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:16">
       <c r="A250" t="s">
         <v>17</v>
       </c>
@@ -15968,7 +15969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:16">
       <c r="A251" t="s">
         <v>17</v>
       </c>
@@ -16018,7 +16019,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:16">
       <c r="A252" t="s">
         <v>17</v>
       </c>
@@ -16068,7 +16069,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:16">
       <c r="A253" t="s">
         <v>17</v>
       </c>
@@ -16118,7 +16119,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:16">
       <c r="A254" t="s">
         <v>17</v>
       </c>
@@ -16168,7 +16169,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:16">
       <c r="A255" t="s">
         <v>17</v>
       </c>
@@ -16218,7 +16219,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:16">
       <c r="A256" t="s">
         <v>17</v>
       </c>
@@ -16268,7 +16269,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:16">
       <c r="A257" t="s">
         <v>17</v>
       </c>
@@ -16318,7 +16319,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:16">
       <c r="A258" t="s">
         <v>17</v>
       </c>
@@ -16368,7 +16369,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:16">
       <c r="A259" t="s">
         <v>17</v>
       </c>
@@ -16418,7 +16419,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:16">
       <c r="A260" t="s">
         <v>17</v>
       </c>
@@ -16468,7 +16469,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:16">
       <c r="A261" t="s">
         <v>17</v>
       </c>
@@ -16518,7 +16519,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:16">
       <c r="A262" t="s">
         <v>17</v>
       </c>
@@ -16568,7 +16569,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:16">
       <c r="A263" t="s">
         <v>17</v>
       </c>
@@ -16618,7 +16619,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:16">
       <c r="A264" t="s">
         <v>17</v>
       </c>
@@ -16668,7 +16669,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:16">
       <c r="A265" t="s">
         <v>17</v>
       </c>
@@ -16718,7 +16719,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:16">
       <c r="A266" t="s">
         <v>17</v>
       </c>
@@ -16768,7 +16769,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:16">
       <c r="A267" t="s">
         <v>17</v>
       </c>
@@ -16818,7 +16819,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:16">
       <c r="A268" t="s">
         <v>17</v>
       </c>
@@ -16868,7 +16869,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:16">
       <c r="A269" t="s">
         <v>17</v>
       </c>
@@ -16918,7 +16919,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:16">
       <c r="A270" t="s">
         <v>17</v>
       </c>
@@ -16968,7 +16969,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:16">
       <c r="A271" t="s">
         <v>17</v>
       </c>
@@ -17018,7 +17019,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:16">
       <c r="A272" t="s">
         <v>17</v>
       </c>
@@ -17069,7 +17070,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:16">
       <c r="A273" t="s">
         <v>17</v>
       </c>
@@ -17119,7 +17120,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:16">
       <c r="A274" t="s">
         <v>17</v>
       </c>
@@ -17169,7 +17170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:16">
       <c r="A275" t="s">
         <v>17</v>
       </c>
@@ -17219,7 +17220,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:16">
       <c r="A276" t="s">
         <v>17</v>
       </c>
@@ -17269,7 +17270,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:16">
       <c r="A277" t="s">
         <v>17</v>
       </c>
@@ -17319,7 +17320,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:16">
       <c r="A278" t="s">
         <v>17</v>
       </c>
@@ -17369,7 +17370,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:16">
       <c r="A279" t="s">
         <v>17</v>
       </c>
@@ -17419,7 +17420,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:16">
       <c r="A280" t="s">
         <v>17</v>
       </c>
@@ -17469,7 +17470,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:16">
       <c r="A281" t="s">
         <v>17</v>
       </c>
@@ -17519,7 +17520,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:16">
       <c r="A282" t="s">
         <v>17</v>
       </c>
@@ -17569,7 +17570,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:16">
       <c r="A283" t="s">
         <v>17</v>
       </c>
@@ -17619,7 +17620,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:16">
       <c r="A284" t="s">
         <v>17</v>
       </c>
@@ -17669,7 +17670,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:16">
       <c r="A285" t="s">
         <v>17</v>
       </c>
@@ -17719,7 +17720,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:16">
       <c r="A286" t="s">
         <v>17</v>
       </c>
@@ -17769,7 +17770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:16">
       <c r="A287" t="s">
         <v>17</v>
       </c>
@@ -17819,7 +17820,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:16">
       <c r="A288" t="s">
         <v>17</v>
       </c>
@@ -17869,7 +17870,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:16">
       <c r="A289" t="s">
         <v>17</v>
       </c>
@@ -17919,7 +17920,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:16">
       <c r="A290" t="s">
         <v>17</v>
       </c>
@@ -17969,7 +17970,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:16">
       <c r="A291" t="s">
         <v>17</v>
       </c>
@@ -18019,7 +18020,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:16">
       <c r="A292" t="s">
         <v>17</v>
       </c>
@@ -18069,7 +18070,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:16">
       <c r="A293" t="s">
         <v>17</v>
       </c>
@@ -18119,7 +18120,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:16">
       <c r="A294" t="s">
         <v>17</v>
       </c>
@@ -18169,7 +18170,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:16">
       <c r="A295" t="s">
         <v>17</v>
       </c>
@@ -18219,7 +18220,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:16">
       <c r="A296" t="s">
         <v>17</v>
       </c>
@@ -18269,7 +18270,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:16">
       <c r="A297" t="s">
         <v>17</v>
       </c>
@@ -18319,7 +18320,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:16">
       <c r="A298" t="s">
         <v>17</v>
       </c>
@@ -18369,7 +18370,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="299" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:16">
       <c r="A299" t="s">
         <v>17</v>
       </c>
@@ -18419,7 +18420,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:16">
       <c r="A300" t="s">
         <v>17</v>
       </c>
@@ -18469,7 +18470,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:16">
       <c r="A301" t="s">
         <v>17</v>
       </c>
@@ -18519,7 +18520,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:16">
       <c r="A302" t="s">
         <v>17</v>
       </c>
@@ -18569,7 +18570,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="303" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:16">
       <c r="A303" t="s">
         <v>17</v>
       </c>
@@ -18619,7 +18620,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="304" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:16">
       <c r="A304" t="s">
         <v>17</v>
       </c>
@@ -18669,7 +18670,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="305" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:16">
       <c r="A305" t="s">
         <v>17</v>
       </c>
@@ -18719,7 +18720,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="306" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:16">
       <c r="A306" t="s">
         <v>17</v>
       </c>
@@ -18769,7 +18770,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="307" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:16">
       <c r="A307" t="s">
         <v>17</v>
       </c>
@@ -18819,7 +18820,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="308" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:16">
       <c r="A308" t="s">
         <v>17</v>
       </c>
@@ -18869,7 +18870,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="309" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:16">
       <c r="A309" t="s">
         <v>17</v>
       </c>
@@ -18919,7 +18920,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="310" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:16">
       <c r="A310" t="s">
         <v>17</v>
       </c>
@@ -18969,7 +18970,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="311" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:16">
       <c r="A311" t="s">
         <v>17</v>
       </c>
@@ -19020,7 +19021,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="312" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:16">
       <c r="A312" t="s">
         <v>17</v>
       </c>
@@ -19070,7 +19071,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="313" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:16">
       <c r="A313" t="s">
         <v>17</v>
       </c>
@@ -19120,7 +19121,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="314" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:16">
       <c r="A314" t="s">
         <v>17</v>
       </c>
@@ -19170,7 +19171,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="315" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:16">
       <c r="A315" t="s">
         <v>17</v>
       </c>
@@ -19220,7 +19221,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="316" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:16">
       <c r="A316" t="s">
         <v>17</v>
       </c>
@@ -19270,7 +19271,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="317" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:16">
       <c r="A317" t="s">
         <v>17</v>
       </c>
@@ -19320,7 +19321,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="318" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:16">
       <c r="A318" t="s">
         <v>17</v>
       </c>
@@ -19370,7 +19371,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="319" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:16">
       <c r="A319" t="s">
         <v>17</v>
       </c>
@@ -19420,7 +19421,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="320" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:16">
       <c r="A320" t="s">
         <v>17</v>
       </c>
@@ -19470,7 +19471,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="321" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:16">
       <c r="A321" t="s">
         <v>17</v>
       </c>
@@ -19520,7 +19521,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:16">
       <c r="A322" t="s">
         <v>17</v>
       </c>
@@ -19570,7 +19571,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="323" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:16">
       <c r="A323" t="s">
         <v>17</v>
       </c>
@@ -19620,7 +19621,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="324" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:16">
       <c r="A324" t="s">
         <v>17</v>
       </c>
@@ -19670,7 +19671,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="325" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:16">
       <c r="A325" t="s">
         <v>17</v>
       </c>
@@ -19720,7 +19721,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="326" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:16">
       <c r="A326" t="s">
         <v>17</v>
       </c>
@@ -19770,7 +19771,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="327" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:16">
       <c r="A327" t="s">
         <v>17</v>
       </c>
@@ -19820,7 +19821,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="328" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:16">
       <c r="A328" t="s">
         <v>17</v>
       </c>
@@ -19870,7 +19871,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="329" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:16">
       <c r="A329" t="s">
         <v>17</v>
       </c>
@@ -19920,7 +19921,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="330" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:16">
       <c r="A330" t="s">
         <v>17</v>
       </c>
@@ -19970,7 +19971,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="331" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:16">
       <c r="A331" t="s">
         <v>17</v>
       </c>
@@ -20020,7 +20021,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="332" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:16">
       <c r="A332" t="s">
         <v>17</v>
       </c>
@@ -20070,7 +20071,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="333" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:16">
       <c r="A333" t="s">
         <v>17</v>
       </c>
@@ -20120,7 +20121,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="334" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:16">
       <c r="A334" t="s">
         <v>17</v>
       </c>
@@ -20170,7 +20171,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="335" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:16">
       <c r="A335" t="s">
         <v>17</v>
       </c>
@@ -20220,7 +20221,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="336" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:16">
       <c r="A336" t="s">
         <v>17</v>
       </c>
@@ -20270,7 +20271,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:16">
       <c r="A337" t="s">
         <v>17</v>
       </c>
@@ -20320,7 +20321,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:16">
       <c r="A338" t="s">
         <v>17</v>
       </c>
@@ -20370,7 +20371,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:16">
       <c r="A339" t="s">
         <v>17</v>
       </c>
@@ -20420,7 +20421,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:16">
       <c r="A340" t="s">
         <v>17</v>
       </c>
@@ -20470,7 +20471,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:16">
       <c r="A341" t="s">
         <v>17</v>
       </c>
@@ -20520,7 +20521,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:16">
       <c r="A342" t="s">
         <v>17</v>
       </c>
@@ -20570,7 +20571,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:16">
       <c r="A343" t="s">
         <v>17</v>
       </c>
@@ -20620,7 +20621,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="344" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:16">
       <c r="A344" t="s">
         <v>17</v>
       </c>
@@ -20670,7 +20671,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:16">
       <c r="A345" t="s">
         <v>17</v>
       </c>
@@ -20720,7 +20721,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:16">
       <c r="A346" t="s">
         <v>17</v>
       </c>
@@ -20770,7 +20771,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:16">
       <c r="A347" t="s">
         <v>17</v>
       </c>
@@ -20820,7 +20821,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:16">
       <c r="A348" t="s">
         <v>17</v>
       </c>
@@ -20870,7 +20871,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:16">
       <c r="A349" t="s">
         <v>17</v>
       </c>
@@ -20920,7 +20921,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:16">
       <c r="A350" t="s">
         <v>17</v>
       </c>
@@ -20970,7 +20971,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:16">
       <c r="A351" t="s">
         <v>17</v>
       </c>
@@ -21020,7 +21021,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:16">
       <c r="A352" t="s">
         <v>17</v>
       </c>
@@ -21070,7 +21071,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="353" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:16">
       <c r="A353" t="s">
         <v>17</v>
       </c>
@@ -21120,7 +21121,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="354" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:16">
       <c r="A354" t="s">
         <v>17</v>
       </c>
@@ -21170,7 +21171,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="355" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:16">
       <c r="A355" t="s">
         <v>17</v>
       </c>
@@ -21220,7 +21221,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="356" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:16">
       <c r="A356" t="s">
         <v>17</v>
       </c>
@@ -21270,7 +21271,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="357" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:16">
       <c r="A357" t="s">
         <v>17</v>
       </c>
@@ -21320,7 +21321,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="358" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:16">
       <c r="A358" t="s">
         <v>17</v>
       </c>
@@ -21370,7 +21371,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="359" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:16">
       <c r="A359" t="s">
         <v>17</v>
       </c>
@@ -21420,7 +21421,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="360" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:16">
       <c r="A360" t="s">
         <v>17</v>
       </c>
@@ -21470,7 +21471,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="361" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:16">
       <c r="A361" t="s">
         <v>17</v>
       </c>
@@ -21520,7 +21521,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="362" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:16">
       <c r="A362" t="s">
         <v>17</v>
       </c>
@@ -21570,7 +21571,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="363" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:16">
       <c r="A363" t="s">
         <v>17</v>
       </c>
@@ -21620,7 +21621,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="364" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:16">
       <c r="A364" t="s">
         <v>17</v>
       </c>
@@ -21670,7 +21671,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="365" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:16">
       <c r="A365" t="s">
         <v>17</v>
       </c>
@@ -21720,7 +21721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:16">
       <c r="A366" t="s">
         <v>17</v>
       </c>
@@ -21770,7 +21771,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="367" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:16">
       <c r="A367" t="s">
         <v>17</v>
       </c>
@@ -21820,7 +21821,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="368" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:16">
       <c r="A368" t="s">
         <v>17</v>
       </c>
@@ -21870,7 +21871,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="369" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:16">
       <c r="A369" t="s">
         <v>17</v>
       </c>
@@ -21920,7 +21921,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="370" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:16">
       <c r="A370" t="s">
         <v>17</v>
       </c>
@@ -21970,7 +21971,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="371" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:16">
       <c r="A371" t="s">
         <v>17</v>
       </c>
@@ -22020,7 +22021,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="372" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:16">
       <c r="A372" t="s">
         <v>17</v>
       </c>
@@ -22070,7 +22071,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="373" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:16">
       <c r="A373" t="s">
         <v>17</v>
       </c>
@@ -22120,7 +22121,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="374" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:16">
       <c r="A374" t="s">
         <v>17</v>
       </c>
@@ -22170,7 +22171,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="375" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:16">
       <c r="A375" t="s">
         <v>17</v>
       </c>
@@ -22220,7 +22221,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="376" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:16">
       <c r="A376" t="s">
         <v>17</v>
       </c>
@@ -22270,7 +22271,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="377" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:16">
       <c r="A377" t="s">
         <v>17</v>
       </c>
@@ -22320,7 +22321,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="378" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:16">
       <c r="A378" t="s">
         <v>17</v>
       </c>
@@ -22370,7 +22371,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="379" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:16">
       <c r="A379" t="s">
         <v>17</v>
       </c>
@@ -22420,7 +22421,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="380" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:16">
       <c r="A380" t="s">
         <v>17</v>
       </c>
@@ -22470,7 +22471,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="381" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:16">
       <c r="A381" t="s">
         <v>17</v>
       </c>
@@ -22520,7 +22521,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="382" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:16">
       <c r="A382" t="s">
         <v>17</v>
       </c>
@@ -22570,7 +22571,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="383" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:16">
       <c r="A383" t="s">
         <v>17</v>
       </c>
@@ -22620,7 +22621,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="384" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:16">
       <c r="A384" t="s">
         <v>17</v>
       </c>
@@ -22670,7 +22671,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="385" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:16">
       <c r="A385" t="s">
         <v>17</v>
       </c>
@@ -22720,7 +22721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:16">
       <c r="A386" t="s">
         <v>17</v>
       </c>
@@ -22770,7 +22771,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="387" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:16">
       <c r="A387" t="s">
         <v>17</v>
       </c>
@@ -22820,7 +22821,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="388" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:16">
       <c r="A388" t="s">
         <v>17</v>
       </c>
@@ -22870,7 +22871,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="389" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:16">
       <c r="A389" t="s">
         <v>17</v>
       </c>
@@ -22920,7 +22921,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="390" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:16">
       <c r="A390" t="s">
         <v>17</v>
       </c>
@@ -22970,7 +22971,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="391" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:16">
       <c r="A391" t="s">
         <v>17</v>
       </c>
@@ -23020,7 +23021,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="392" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:16">
       <c r="A392" t="s">
         <v>17</v>
       </c>
@@ -23070,7 +23071,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="393" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:16">
       <c r="A393" t="s">
         <v>17</v>
       </c>
@@ -23120,7 +23121,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="394" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:16">
       <c r="A394" t="s">
         <v>17</v>
       </c>
@@ -23170,7 +23171,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="395" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:16">
       <c r="A395" t="s">
         <v>17</v>
       </c>
@@ -23220,7 +23221,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="396" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:16">
       <c r="A396" t="s">
         <v>17</v>
       </c>
@@ -23270,7 +23271,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="397" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:16">
       <c r="A397" t="s">
         <v>17</v>
       </c>
@@ -23320,7 +23321,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="398" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:16">
       <c r="A398" t="s">
         <v>17</v>
       </c>
@@ -23370,7 +23371,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="399" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:16">
       <c r="A399" t="s">
         <v>17</v>
       </c>
@@ -23420,7 +23421,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="400" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:16">
       <c r="A400" t="s">
         <v>17</v>
       </c>
@@ -23470,7 +23471,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="401" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:16">
       <c r="A401" t="s">
         <v>17</v>
       </c>
@@ -23520,7 +23521,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="402" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:16">
       <c r="A402" t="s">
         <v>17</v>
       </c>
@@ -23570,7 +23571,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="403" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:16">
       <c r="A403" t="s">
         <v>17</v>
       </c>
@@ -23620,7 +23621,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="404" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:16">
       <c r="A404" t="s">
         <v>17</v>
       </c>
@@ -23670,7 +23671,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="405" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:16">
       <c r="A405" t="s">
         <v>17</v>
       </c>
@@ -23720,7 +23721,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="406" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:16">
       <c r="A406" t="s">
         <v>17</v>
       </c>
@@ -23770,7 +23771,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="407" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:16">
       <c r="A407" t="s">
         <v>17</v>
       </c>
@@ -23820,7 +23821,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="408" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:16">
       <c r="A408" t="s">
         <v>17</v>
       </c>
@@ -23870,7 +23871,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="409" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:16">
       <c r="A409" t="s">
         <v>17</v>
       </c>
@@ -23920,7 +23921,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="410" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:16">
       <c r="A410" t="s">
         <v>17</v>
       </c>
@@ -23970,7 +23971,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="411" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:16">
       <c r="A411" t="s">
         <v>17</v>
       </c>
@@ -24020,7 +24021,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="412" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:16">
       <c r="A412" t="s">
         <v>17</v>
       </c>
@@ -24070,7 +24071,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="413" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:16">
       <c r="A413" t="s">
         <v>17</v>
       </c>
@@ -24120,7 +24121,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="414" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:16">
       <c r="A414" t="s">
         <v>17</v>
       </c>
@@ -24170,7 +24171,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="415" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:16">
       <c r="A415" t="s">
         <v>17</v>
       </c>
@@ -24220,7 +24221,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="416" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:16">
       <c r="A416" t="s">
         <v>17</v>
       </c>
@@ -24270,7 +24271,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="417" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:16">
       <c r="A417" t="s">
         <v>17</v>
       </c>
@@ -24320,7 +24321,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="418" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:16">
       <c r="A418" t="s">
         <v>17</v>
       </c>
@@ -24370,7 +24371,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="419" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:16">
       <c r="A419" t="s">
         <v>17</v>
       </c>
@@ -24420,7 +24421,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="420" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:16">
       <c r="A420" t="s">
         <v>17</v>
       </c>
@@ -24470,7 +24471,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="421" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:16">
       <c r="A421" t="s">
         <v>17</v>
       </c>
@@ -24520,7 +24521,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="422" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:16">
       <c r="A422" t="s">
         <v>17</v>
       </c>
@@ -24570,7 +24571,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="423" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:16">
       <c r="A423" t="s">
         <v>17</v>
       </c>
@@ -24620,7 +24621,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="424" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:16">
       <c r="A424" t="s">
         <v>17</v>
       </c>
@@ -24670,7 +24671,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="425" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:16">
       <c r="A425" t="s">
         <v>17</v>
       </c>
@@ -24720,7 +24721,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="426" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:16">
       <c r="A426" t="s">
         <v>17</v>
       </c>
@@ -24770,7 +24771,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="427" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:16">
       <c r="A427" t="s">
         <v>17</v>
       </c>
@@ -24820,7 +24821,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="428" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:16">
       <c r="A428" t="s">
         <v>17</v>
       </c>
@@ -24870,7 +24871,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="429" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:16">
       <c r="A429" t="s">
         <v>17</v>
       </c>
@@ -24920,7 +24921,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="430" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:16">
       <c r="A430" t="s">
         <v>17</v>
       </c>
@@ -24970,7 +24971,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="431" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:16">
       <c r="A431" t="s">
         <v>17</v>
       </c>
@@ -25020,7 +25021,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="432" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:16">
       <c r="A432" t="s">
         <v>17</v>
       </c>
@@ -25070,7 +25071,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="433" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:16">
       <c r="A433" t="s">
         <v>17</v>
       </c>
@@ -25120,7 +25121,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="434" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:16">
       <c r="A434" t="s">
         <v>17</v>
       </c>
@@ -25170,7 +25171,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="435" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:16">
       <c r="A435" t="s">
         <v>17</v>
       </c>
@@ -25220,7 +25221,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="436" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:16">
       <c r="A436" t="s">
         <v>17</v>
       </c>
@@ -25270,7 +25271,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="437" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:16">
       <c r="A437" t="s">
         <v>17</v>
       </c>
@@ -25321,7 +25322,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="438" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:16">
       <c r="A438" t="s">
         <v>17</v>
       </c>
@@ -25371,7 +25372,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="439" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:16">
       <c r="A439" t="s">
         <v>17</v>
       </c>
@@ -25421,7 +25422,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="440" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:16">
       <c r="A440" t="s">
         <v>17</v>
       </c>
@@ -25471,7 +25472,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="441" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:16">
       <c r="A441" t="s">
         <v>17</v>
       </c>
@@ -25521,7 +25522,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="442" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:16">
       <c r="A442" t="s">
         <v>17</v>
       </c>
@@ -25571,7 +25572,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="443" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:16">
       <c r="A443" t="s">
         <v>17</v>
       </c>
@@ -25621,7 +25622,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="444" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:16">
       <c r="A444" t="s">
         <v>17</v>
       </c>
@@ -25671,7 +25672,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="445" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:16">
       <c r="A445" t="s">
         <v>17</v>
       </c>
@@ -25721,7 +25722,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="446" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:16">
       <c r="A446" t="s">
         <v>17</v>
       </c>
@@ -25771,7 +25772,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="447" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:16">
       <c r="A447" t="s">
         <v>17</v>
       </c>
@@ -25822,7 +25823,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="448" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:16">
       <c r="A448" t="s">
         <v>17</v>
       </c>
@@ -25872,7 +25873,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="449" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:16">
       <c r="A449" t="s">
         <v>17</v>
       </c>
@@ -25922,7 +25923,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="450" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:16">
       <c r="A450" t="s">
         <v>17</v>
       </c>
@@ -25972,7 +25973,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="451" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:16">
       <c r="A451" t="s">
         <v>17</v>
       </c>
@@ -26022,7 +26023,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="452" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:16">
       <c r="A452" t="s">
         <v>17</v>
       </c>
@@ -26072,7 +26073,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="453" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:16">
       <c r="A453" t="s">
         <v>17</v>
       </c>
@@ -26122,7 +26123,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="454" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:16">
       <c r="A454" t="s">
         <v>17</v>
       </c>
@@ -26172,7 +26173,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="455" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:16">
       <c r="A455" t="s">
         <v>17</v>
       </c>
@@ -26222,7 +26223,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="456" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:16">
       <c r="A456" t="s">
         <v>17</v>
       </c>
@@ -26272,7 +26273,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="457" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:16">
       <c r="A457" t="s">
         <v>17</v>
       </c>
@@ -26322,7 +26323,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="458" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:16">
       <c r="A458" t="s">
         <v>17</v>
       </c>
@@ -26372,7 +26373,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="459" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:16">
       <c r="A459" t="s">
         <v>17</v>
       </c>
@@ -26422,7 +26423,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="460" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:16">
       <c r="A460" t="s">
         <v>17</v>
       </c>
@@ -26472,7 +26473,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="461" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:16">
       <c r="A461" t="s">
         <v>17</v>
       </c>
@@ -26522,7 +26523,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="462" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:16">
       <c r="A462" t="s">
         <v>17</v>
       </c>
@@ -26572,7 +26573,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="463" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:16">
       <c r="A463" t="s">
         <v>17</v>
       </c>
@@ -26623,7 +26624,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="464" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:16">
       <c r="A464" t="s">
         <v>17</v>
       </c>
@@ -26673,7 +26674,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="465" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:16">
       <c r="A465" t="s">
         <v>17</v>
       </c>
@@ -26723,7 +26724,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="466" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:16">
       <c r="A466" t="s">
         <v>17</v>
       </c>
@@ -26773,7 +26774,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="467" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:16">
       <c r="A467" t="s">
         <v>17</v>
       </c>
@@ -26823,7 +26824,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="468" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:16">
       <c r="A468" t="s">
         <v>17</v>
       </c>
@@ -26873,7 +26874,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="469" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:16">
       <c r="A469" t="s">
         <v>17</v>
       </c>
@@ -26923,7 +26924,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="470" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:16">
       <c r="A470" t="s">
         <v>17</v>
       </c>
@@ -26973,7 +26974,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="471" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:16">
       <c r="A471" t="s">
         <v>17</v>
       </c>
@@ -27023,7 +27024,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="472" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:16">
       <c r="A472" t="s">
         <v>17</v>
       </c>
